--- a/media/excel_utils/obshi_vizit_excel_Surxandaryo.xlsx
+++ b/media/excel_utils/obshi_vizit_excel_Surxandaryo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,237 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-02-27 11:08:16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mavluda Denov</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+998997370418</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Surxandaryo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Denov shaxar</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Denov shaxar KTMK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Qoʻchqorova Matluba</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>УАШ.Гинеколог</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Lamino
+Siprozon s
+Entro d ni koʻrib chiqay dedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-03-01 11:20:18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mavluda Denov</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+998997370418</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Surxandaryo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Denov shaxar</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>KTMП да</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ergashev Sherzod</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ЛОР</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>+998909552109</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Astrakson 1 gr yozaman dedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-03-20 09:29:52</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mavluda Denov</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+998997370418</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Surxandaryo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Denov shaxar</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>"Ravshan Mirzaev" h.k.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mirzayev Oʻktam Ravshanovich</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Невропотолог</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>+998937655554</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Lamino 200ml
+Astrakson 1 gr koʻrib chiqay dedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-29 11:43:16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mavluda Djuzbayeva</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+998997370418</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Surxandaryo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Denov shaxar</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KTMP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ergashev Sherzod Tilovov</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ЛОР</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>909552109</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Siprozon s yozaman dedi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
